--- a/praktikum/14/lapraktugasakhir.xlsx
+++ b/praktikum/14/lapraktugasakhir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\2\Praktikum\1.Struktur Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\2\Praktikum\git\praktikum\14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE4A03-356A-4D47-91CE-E60E54866DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA4049F-2AC4-4B22-8C4E-4AED83BDB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6DBF4C47-20D0-4044-A7E8-A372DE795B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Kategori</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>1-20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,10 +224,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,15 +258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -278,8 +281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8353425" y="2295525"/>
-          <a:ext cx="3324225" cy="1028700"/>
+          <a:off x="7972425" y="2486025"/>
+          <a:ext cx="3324225" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -613,14 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FDC0A1-580B-4973-8915-EF653D301D47}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="6" customWidth="1"/>
@@ -628,7 +632,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -642,8 +646,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -656,53 +660,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>0.6</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -715,8 +722,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -727,8 +734,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -739,8 +746,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -751,8 +758,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
@@ -763,8 +770,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
@@ -775,8 +782,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
@@ -787,8 +794,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
       <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
@@ -800,19 +807,19 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="16">
         <v>0.1</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
+      <c r="E17" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
